--- a/Resources/monthly_sales.xlsx
+++ b/Resources/monthly_sales.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian Keffer\GW Bootcamp\Project-1\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FBBFF8-C09D-4308-9962-61A22F027692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE7ABE24-1112-4B71-B573-40FB4B923C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="20">
   <si>
     <t>Year</t>
   </si>
@@ -82,12 +82,40 @@
   <si>
     <t>Total constant dollar food sales</t>
   </si>
+  <si>
+    <t>FAH = food at home, FAFH = food away from home.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Note: These estimates are for sales only and exclude food furnished, donated, home produced, and served at educational institutions. The monthly sales are benchmarked to the annual sales, except for the most current year. See the USDA, Economic Research Service report, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Measuring the Value of the U.S. Food System: Revisions to the Food Expenditure Series</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (2018), for more details. With the release of the 2017 Economic Census, the revised estimates were replaced with final estimates in 2022.</t>
+    </r>
+  </si>
+  <si>
+    <t>Source: Calculated by USDA, Economic Research Service (ERS) from various sources, September 19, 2023. See the Food Expenditure Series Documentation on the ERS website.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -133,6 +161,12 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -628,10 +662,10 @@
   <dimension ref="A1:E327"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="O317" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="P327" sqref="P327"/>
+      <selection pane="bottomRight" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6081,21 +6115,27 @@
       </c>
     </row>
     <row r="321" spans="1:5" ht="15" customHeight="1">
-      <c r="A321" s="9"/>
+      <c r="A321" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="B321" s="10"/>
       <c r="C321" s="10"/>
       <c r="D321" s="10"/>
       <c r="E321" s="10"/>
     </row>
     <row r="322" spans="1:5">
-      <c r="A322" s="8"/>
+      <c r="A322" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="B322" s="11"/>
       <c r="C322" s="11"/>
       <c r="D322" s="11"/>
       <c r="E322" s="11"/>
     </row>
     <row r="323" spans="1:5">
-      <c r="A323" s="17"/>
+      <c r="A323" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="B323" s="11"/>
       <c r="C323" s="11"/>
       <c r="D323" s="11"/>
